--- a/av_calculator.xlsx
+++ b/av_calculator.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgeny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C174E2FF-3A7B-4015-B450-B2D7A92438C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D19211-4966-4357-A2D0-106629B5252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="4815" windowWidth="12960" windowHeight="8400" xr2:uid="{615D92A6-2B6D-4E9E-8660-1EAFA87F131C}"/>
+    <workbookView xWindow="13260" yWindow="900" windowWidth="12960" windowHeight="8400" xr2:uid="{615D92A6-2B6D-4E9E-8660-1EAFA87F131C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="g">Sheet1!$A$7</definedName>
+    <definedName name="dt_">Sheet1!$D$11</definedName>
+    <definedName name="g">Sheet1!$A$9</definedName>
+    <definedName name="g_">Sheet1!$D$9</definedName>
     <definedName name="h">Sheet1!$A$4</definedName>
+    <definedName name="h_">Sheet1!$D$4</definedName>
     <definedName name="L">Sheet1!$A$2</definedName>
+    <definedName name="L_">Sheet1!$D$2</definedName>
     <definedName name="l_small">Sheet1!$A$5</definedName>
+    <definedName name="lc_">Sheet1!$D$5</definedName>
+    <definedName name="le_">Sheet1!$D$5</definedName>
     <definedName name="s">Sheet1!$A$3</definedName>
+    <definedName name="s_">Sheet1!$D$3</definedName>
+    <definedName name="sl_">Sheet1!$D$6</definedName>
+    <definedName name="sq1_">Sheet1!$D$7</definedName>
+    <definedName name="sq2_">Sheet1!$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +50,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>L</t>
   </si>
@@ -55,12 +87,6 @@
     <t>relative</t>
   </si>
   <si>
-    <t>rel^2</t>
-  </si>
-  <si>
-    <t>t1 [s]</t>
-  </si>
-  <si>
     <t>v [m/s]</t>
   </si>
   <si>
@@ -85,24 +111,32 @@
     <t>dt  interval [ms]</t>
   </si>
   <si>
-    <t>t2 [s]</t>
-  </si>
-  <si>
     <t>s + l</t>
   </si>
   <si>
-    <t>dt = t2 - t1 [s]</t>
+    <t>dt = F(h, s, l, L, g) = sqrt(2sl/gh) * (sqrt(1+s/l)-1)</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>(df*err)^2</t>
+  </si>
+  <si>
+    <t>sqrt(L s / gh)</t>
+  </si>
+  <si>
+    <t>sqrt(L (s+l) / gh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -176,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,16 +222,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91224143-363C-44E5-AB2E-54FB56433BC3}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,41 +556,45 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="5">
         <f>B2/1000</f>
-        <v>1.2669999999999999</v>
+        <v>1.262</v>
       </c>
       <c r="E2" s="1">
         <f>C2/1000</f>
@@ -567,53 +602,62 @@
       </c>
       <c r="F2" s="3">
         <f>E2/D2</f>
-        <v>7.8926598263614849E-4</v>
-      </c>
-      <c r="G2" s="14">
-        <f>F2^2</f>
-        <v>6.2294079134660509E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.9239302694136295E-4</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(-sq1_ - sq2_)/SQRT(2)/L_</f>
+        <v>-2.2262156396301376</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(G2*E2)^2</f>
+        <v>4.9560360741338226E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>351</v>
+        <f>370-123</f>
+        <v>247</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D4" si="0">B3/1000</f>
-        <v>0.35099999999999998</v>
+        <v>0.247</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E4" si="1">C3/1000</f>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F5" si="2">E3/D3</f>
-        <v>2.8490028490028491E-3</v>
-      </c>
-      <c r="G3" s="14">
-        <f t="shared" ref="G3:G6" si="3">F3^2</f>
-        <v>8.1168172336263505E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.0971659919028341E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>L_ * (-1/sq1_ + 1/sq2_) / SQRT(2) / h_ / g_</f>
+        <v>-0.94556814917826371</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(G3*E3)^2</f>
+        <v>3.5763964989616289E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
         <v>0.1</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>1.15E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
@@ -621,14 +665,18 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="2"/>
-        <v>8.6956521739130436E-3</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" si="3"/>
-        <v>7.5614366729678646E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="3">
+        <f>(sq1_ - sq2_)/SQRT(2)/h_</f>
+        <v>-28.662415107183055</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(G4*E4)^2</f>
+        <v>8.2153403977647545E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -636,201 +684,179 @@
         <v>125</v>
       </c>
       <c r="C5" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5" si="4">B5/1000</f>
+        <f t="shared" ref="D5" si="3">B5/1000</f>
         <v>0.125</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5" si="5">C5/1000</f>
-        <v>1E-4</v>
+        <f t="shared" ref="E5" si="4">C5/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="2"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" si="3"/>
-        <v>6.4000000000000001E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <f>sq2_ / SQRT(2) / sl_</f>
+        <v>4.1614358713508928</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(G5*E5)^2</f>
+        <v>1.7317548511365967E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <f>D6*1000</f>
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="C6" s="9">
         <f>E6*1000</f>
-        <v>1.004987562112089</v>
+        <v>2.2360679774997894</v>
       </c>
       <c r="D6" s="5">
         <f>D3+D5</f>
-        <v>0.47599999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="E6" s="1">
         <f>SQRT(E3*E3+E5*E5)</f>
-        <v>1.004987562112089E-3</v>
+        <v>2.2360679774997894E-3</v>
       </c>
       <c r="F6" s="3">
         <f>E6/D6</f>
-        <v>2.1113184077985064E-3</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="3"/>
-        <v>4.4576654191088197E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.0109354233865309E-3</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10">
-        <v>9.7949000000000002</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="F7" s="3">
-        <f>E7/D7</f>
-        <v>1.0209394684989127E-5</v>
-      </c>
-      <c r="G7" s="14">
-        <f>F7^2</f>
-        <v>1.0423173983388423E-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5">
+        <f>SQRT(L_ *s_ / g_ / h_)</f>
+        <v>1.7839314041847856</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <f>SQRT(L_ *sl_ / g_ / h_)</f>
+        <v>2.1892791659342432</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9">
-        <f>SQRT(2*D3*D2/D7/D4)</f>
-        <v>2.8100104830763173</v>
-      </c>
-      <c r="E9">
-        <f>D9*F9</f>
-        <v>1.2904208588952141E-2</v>
+      <c r="D9" s="10">
+        <v>9.7949000000000002</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1E-4</v>
       </c>
       <c r="F9" s="3">
-        <f>SQRT(G9)/2</f>
-        <v>4.5922279175360904E-3</v>
-      </c>
-      <c r="G9" s="14">
-        <f>(G2+G3+G4+G7)</f>
-        <v>8.4354228986391425E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>E9/D9</f>
+        <v>1.0209394684989127E-5</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10">
-        <f>SQRT(2*(D3+D5) * D2/D7/D4)</f>
-        <v>3.272335759152039</v>
-      </c>
-      <c r="E10">
-        <f>D10*F10</f>
-        <v>1.4697767841055536E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <f>SQRT(G10)/2</f>
-        <v>4.4915219350425617E-3</v>
-      </c>
-      <c r="G10" s="14">
-        <f>(G2+G4+G7+G6)</f>
-        <v>8.0695077171873911E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="11">
-        <f>D10-D9</f>
-        <v>0.46232527607572171</v>
-      </c>
-      <c r="E11" s="11">
-        <f>SQRT(E9*E9+E10*E10)</f>
-        <v>1.9558705959668E-2</v>
+      <c r="D11" s="15">
+        <f>SQRT(2)*(sq2_ - sq1_)</f>
+        <v>0.57324830214366107</v>
+      </c>
+      <c r="E11" s="15">
+        <f>SQRT(H11)</f>
+        <v>5.8365504779986409E-3</v>
       </c>
       <c r="F11" s="3">
         <f>E11/D11</f>
-        <v>4.2305076040152705E-2</v>
-      </c>
-      <c r="G11" s="14">
-        <f>F11*F11</f>
-        <v>1.7897194587631025E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0181539929857394E-2</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="3">
+        <f>SUM(H2:H5)</f>
+        <v>3.4065321482226168E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4">
-        <f>D5/D11</f>
-        <v>0.270372411954234</v>
+      <c r="D13" s="4" cm="1">
+        <f t="array" ref="D13">lc_ / dt_</f>
+        <v>0.21805559568613236</v>
       </c>
       <c r="E13" s="3">
-        <f>D13*F13</f>
-        <v>1.144017038915829E-2</v>
+        <f>SQRT(E5*E5 +E11*E11)</f>
+        <v>5.9215978825166906E-3</v>
       </c>
       <c r="F13" s="3">
-        <f>SQRT(G13)</f>
-        <v>4.2312639468167226E-2</v>
-      </c>
-      <c r="G13" s="14">
-        <f>G11+G5</f>
-        <v>1.7903594587631026E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E13/D13</f>
+        <v>2.715636745704153E-2</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="12">
-        <f>(D11-E11)*1000</f>
-        <v>442.76657011605369</v>
-      </c>
-      <c r="E15" s="12">
-        <f>(D11+E11)*1000</f>
-        <v>481.88398203538975</v>
+      <c r="D15" s="11">
+        <f>(dt_-E11)*1000</f>
+        <v>567.41175166566234</v>
+      </c>
+      <c r="E15" s="11">
+        <f>(dt_+E11)*1000</f>
+        <v>579.08485262165971</v>
       </c>
     </row>
   </sheetData>
